--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA57A77-1470-4B96-AB85-6BA4883753A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C8F62-22E4-4389-AFA0-F99EECEA485A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,16 +31,16 @@
     <t>Level</t>
   </si>
   <si>
-    <t>Hash Function</t>
-  </si>
-  <si>
     <t>Easy</t>
   </si>
   <si>
-    <t>Hash Table</t>
-  </si>
-  <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Greedy</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,18 +448,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
